--- a/data/output/FV2310_FV2304/MSCONS/13002.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4343" uniqueCount="377">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4364" uniqueCount="377">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1304,6 +1304,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U192" totalsRowShown="0">
+  <autoFilter ref="A1:U192"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1593,7 +1623,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10722,5 +10755,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/MSCONS/13002.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4943" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4925" uniqueCount="557">
   <si>
     <t>#</t>
   </si>
@@ -11499,50 +11499,48 @@
       </c>
     </row>
     <row r="184" spans="1:22">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
-      <c r="G184" s="5"/>
-      <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="5" t="s">
+      <c r="C184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K184" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L184" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M184" s="5" t="s">
+      <c r="L184" s="4"/>
+      <c r="M184" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N184" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O184" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="P184" s="5"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5" t="s">
+      <c r="N184" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P184" s="2"/>
+      <c r="Q184" s="2"/>
+      <c r="R184" s="2"/>
+      <c r="S184" s="2"/>
+      <c r="T184" s="2"/>
+      <c r="U184" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="V184" s="5" t="s">
+      <c r="V184" s="2" t="s">
         <v>370</v>
       </c>
     </row>
@@ -11574,9 +11572,7 @@
         <v>304</v>
       </c>
       <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>49</v>
       </c>
@@ -11630,9 +11626,7 @@
         <v>304</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>49</v>
       </c>
@@ -11659,44 +11653,42 @@
       <c r="V186" s="5"/>
     </row>
     <row r="187" spans="1:22">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5" t="s">
+      <c r="C187" s="2"/>
+      <c r="D187" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
-      <c r="G187" s="5"/>
-      <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="5" t="s">
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K187" s="5"/>
-      <c r="L187" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M187" s="5" t="s">
+      <c r="K187" s="2"/>
+      <c r="L187" s="4"/>
+      <c r="M187" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5" t="s">
+      <c r="N187" s="2"/>
+      <c r="O187" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5" t="s">
+      <c r="P187" s="2"/>
+      <c r="Q187" s="2"/>
+      <c r="R187" s="2"/>
+      <c r="S187" s="2"/>
+      <c r="T187" s="2"/>
+      <c r="U187" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="V187" s="5"/>
+      <c r="V187" s="2"/>
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="5" t="s">
@@ -11722,9 +11714,7 @@
         <v>304</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>50</v>
       </c>
@@ -11770,9 +11760,7 @@
         <v>304</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>50</v>
       </c>
@@ -11795,44 +11783,42 @@
       <c r="V189" s="5"/>
     </row>
     <row r="190" spans="1:22">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C190" s="5"/>
-      <c r="D190" s="5" t="s">
+      <c r="C190" s="2"/>
+      <c r="D190" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="5"/>
-      <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="5" t="s">
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M190" s="5" t="s">
+      <c r="K190" s="2"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5" t="s">
+      <c r="N190" s="2"/>
+      <c r="O190" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5" t="s">
+      <c r="P190" s="2"/>
+      <c r="Q190" s="2"/>
+      <c r="R190" s="2"/>
+      <c r="S190" s="2"/>
+      <c r="T190" s="2"/>
+      <c r="U190" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="V190" s="5"/>
+      <c r="V190" s="2"/>
     </row>
     <row r="191" spans="1:22">
       <c r="A191" s="5" t="s">
@@ -11858,9 +11844,7 @@
         <v>304</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>51</v>
       </c>
@@ -11906,9 +11890,7 @@
         <v>304</v>
       </c>
       <c r="K192" s="5"/>
-      <c r="L192" s="7" t="s">
-        <v>371</v>
-      </c>
+      <c r="L192" s="4"/>
       <c r="M192" s="5" t="s">
         <v>51</v>
       </c>

--- a/data/output/FV2310_FV2304/MSCONS/13002.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13002.xlsx
@@ -2299,7 +2299,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3631,7 +3631,7 @@
         <v>347</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3823,7 +3823,7 @@
         <v>349</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5043,7 +5043,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2"/>
@@ -5429,7 +5429,7 @@
         <v>352</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5565,7 +5565,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6075,7 +6075,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6691,7 +6691,7 @@
         <v>358</v>
       </c>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6899,7 +6899,7 @@
         <v>358</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7107,7 +7107,7 @@
         <v>360</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7369,7 +7369,7 @@
         <v>362</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7577,7 +7577,7 @@
         <v>364</v>
       </c>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7785,7 +7785,7 @@
         <v>366</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8263,7 +8263,7 @@
         <v>367</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8903,7 +8903,7 @@
         <v>368</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10245,7 +10245,7 @@
         <v>369</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -11523,7 +11523,7 @@
         <v>370</v>
       </c>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N187" s="2"/>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N190" s="2"/>
